--- a/db_login.xlsx
+++ b/db_login.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\uktpagarnusa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E3F370-178B-420F-8DE5-6C13A6C3F749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D68E7D99-00B4-47B5-9C1D-EDEB13FB329C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{F4BBDE84-6D68-4F5F-A097-307679EF94F8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="79">
   <si>
     <t>Dwi Nur Aini</t>
   </si>
@@ -256,6 +256,21 @@
   </si>
   <si>
     <t>Kualifikasi</t>
+  </si>
+  <si>
+    <t>dinda ayuni</t>
+  </si>
+  <si>
+    <t>ayunidinda014@gmail.com</t>
+  </si>
+  <si>
+    <t>lebak 23 dsember 2005</t>
+  </si>
+  <si>
+    <t>lebak,banten</t>
+  </si>
+  <si>
+    <t>Kuning</t>
   </si>
 </sst>
 </file>
@@ -699,10 +714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5348A7B2-5BAC-4ECF-831A-796C8882225E}">
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1277,6 +1292,47 @@
         <v>57</v>
       </c>
     </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H17" s="8">
+        <v>81574795349</v>
+      </c>
+      <c r="I17" s="8">
+        <v>2024</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="L8" r:id="rId1" xr:uid="{729E1C9C-11B0-4520-9800-1C0DEA8C25C7}"/>

--- a/db_login.xlsx
+++ b/db_login.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\uktpagarnusa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D68E7D99-00B4-47B5-9C1D-EDEB13FB329C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7263DE94-CB23-4BB6-8493-16E97B1147F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{F4BBDE84-6D68-4F5F-A097-307679EF94F8}"/>
   </bookViews>
@@ -138,9 +138,6 @@
     <t>Lampung utara, Lampung</t>
   </si>
   <si>
-    <t>Ardan mizanul khoiri</t>
-  </si>
-  <si>
     <t>Ardanmaskur767@gmail.com</t>
   </si>
   <si>
@@ -177,9 +174,6 @@
     <t>Garut, jawa barat</t>
   </si>
   <si>
-    <t>MOCHAMMAD WAFI NUR JIHAN</t>
-  </si>
-  <si>
     <t>wafiantasena@gmail.com</t>
   </si>
   <si>
@@ -189,9 +183,6 @@
     <t>DESA.SIDAMULYA-KEC.WANASARI-KAB.BREBES-JAWA TENGAH</t>
   </si>
   <si>
-    <t>HOIRUL SAMBUDI</t>
-  </si>
-  <si>
     <t>hoirulsambudi49@gmail.com</t>
   </si>
   <si>
@@ -258,9 +249,6 @@
     <t>Kualifikasi</t>
   </si>
   <si>
-    <t>dinda ayuni</t>
-  </si>
-  <si>
     <t>ayunidinda014@gmail.com</t>
   </si>
   <si>
@@ -271,6 +259,18 @@
   </si>
   <si>
     <t>Kuning</t>
+  </si>
+  <si>
+    <t>Ardan Mizanul Khoiri</t>
+  </si>
+  <si>
+    <t>Mochammad Wafi Nur Jihan</t>
+  </si>
+  <si>
+    <t>Hoirul Sambudi</t>
+  </si>
+  <si>
+    <t>Dinda Ayuni</t>
   </si>
 </sst>
 </file>
@@ -717,7 +717,7 @@
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -776,21 +776,21 @@
         <v>23</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -804,13 +804,13 @@
     </row>
     <row r="3" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D3" s="8" t="str">
         <f>A3&amp;B3</f>
@@ -828,13 +828,13 @@
     </row>
     <row r="4" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D4" s="8" t="str">
         <f t="shared" ref="D4:D7" si="0">A4&amp;B4</f>
@@ -852,13 +852,13 @@
     </row>
     <row r="5" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D5" s="8" t="str">
         <f t="shared" si="0"/>
@@ -876,13 +876,13 @@
     </row>
     <row r="6" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D6" s="8" t="str">
         <f t="shared" si="0"/>
@@ -898,15 +898,15 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D7" s="8" t="str">
         <f t="shared" si="0"/>
@@ -955,13 +955,13 @@
         <v>21</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="L8" s="10" t="s">
         <v>25</v>
       </c>
       <c r="M8" s="15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="31" x14ac:dyDescent="0.35">
@@ -1002,7 +1002,7 @@
         <v>24</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
@@ -1043,7 +1043,7 @@
         <v>24</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
@@ -1084,12 +1084,12 @@
         <v>24</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" s="8">
         <v>2025</v>
@@ -1098,16 +1098,16 @@
         <v>16</v>
       </c>
       <c r="D12" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="F12" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="G12" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>37</v>
       </c>
       <c r="H12" s="8">
         <v>83857670720</v>
@@ -1116,7 +1116,7 @@
         <v>2025</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K12" s="11" t="s">
         <v>22</v>
@@ -1125,12 +1125,12 @@
         <v>24</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B13" s="8">
         <v>2025</v>
@@ -1139,16 +1139,16 @@
         <v>16</v>
       </c>
       <c r="D13" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="F13" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="G13" s="8" t="s">
         <v>41</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>42</v>
       </c>
       <c r="H13" s="8">
         <v>83160439639</v>
@@ -1157,7 +1157,7 @@
         <v>2025</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K13" s="11" t="s">
         <v>22</v>
@@ -1166,12 +1166,12 @@
         <v>24</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B14" s="8">
         <v>2024</v>
@@ -1180,16 +1180,16 @@
         <v>16</v>
       </c>
       <c r="D14" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="F14" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="G14" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>46</v>
       </c>
       <c r="H14" s="8">
         <v>83147387373</v>
@@ -1207,12 +1207,12 @@
         <v>24</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B15" s="8">
         <v>2025</v>
@@ -1221,16 +1221,16 @@
         <v>16</v>
       </c>
       <c r="D15" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="G15" s="8" t="s">
         <v>48</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>50</v>
       </c>
       <c r="H15" s="8">
         <v>83842685953</v>
@@ -1239,7 +1239,7 @@
         <v>2025</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K15" s="11" t="s">
         <v>22</v>
@@ -1248,12 +1248,12 @@
         <v>24</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B16" s="8">
         <v>2024</v>
@@ -1262,16 +1262,16 @@
         <v>16</v>
       </c>
       <c r="D16" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" s="8" t="s">
         <v>51</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>54</v>
       </c>
       <c r="H16" s="8">
         <v>82299054116</v>
@@ -1289,12 +1289,12 @@
         <v>24</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B17" s="8">
         <v>2024</v>
@@ -1303,16 +1303,16 @@
         <v>16</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H17" s="8">
         <v>81574795349</v>
@@ -1321,7 +1321,7 @@
         <v>2024</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K17" s="11" t="s">
         <v>22</v>
@@ -1330,7 +1330,7 @@
         <v>24</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/db_login.xlsx
+++ b/db_login.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\uktpagarnusa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thinkpad\OneDrive\Documents\WEBSITE\uktpagarnusa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{798ACE15-B881-4413-B428-4A6F7FBCED33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E117E1-814E-4D83-8696-5FEC5C305B87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{F4BBDE84-6D68-4F5F-A097-307679EF94F8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="75">
   <si>
     <t>Dwi Nur Aini</t>
   </si>
@@ -247,6 +247,18 @@
   </si>
   <si>
     <t>Dinda Ayuni</t>
+  </si>
+  <si>
+    <t>Ramlan</t>
+  </si>
+  <si>
+    <t>ramlankhenzo79@gmail.com</t>
+  </si>
+  <si>
+    <t>Bone 06 0ktober 2006</t>
+  </si>
+  <si>
+    <t>Sulawesi tangah kabupaten poso</t>
   </si>
 </sst>
 </file>
@@ -684,7 +696,7 @@
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1259,11 +1271,51 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="18" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="20" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H17" s="8">
+        <v>85810936860</v>
+      </c>
+      <c r="I17" s="8">
+        <v>2025</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E8" r:id="rId1" xr:uid="{7D5A4706-D712-4DA9-ACAD-5CAC2966841B}"/>

--- a/db_login.xlsx
+++ b/db_login.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thinkpad\OneDrive\Documents\WEBSITE\uktpagarnusa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E117E1-814E-4D83-8696-5FEC5C305B87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDFDFB84-97E8-4B76-A1CC-2EBDE9997CD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{F4BBDE84-6D68-4F5F-A097-307679EF94F8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="74">
   <si>
     <t>Dwi Nur Aini</t>
   </si>
@@ -232,9 +232,6 @@
   </si>
   <si>
     <t>lebak,banten</t>
-  </si>
-  <si>
-    <t>Kuning</t>
   </si>
   <si>
     <t>Ardan Mizanul Khoiri</t>
@@ -695,8 +692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5348A7B2-5BAC-4ECF-831A-796C8882225E}">
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1036,7 +1033,7 @@
         <v>16</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>28</v>
@@ -1159,7 +1156,7 @@
         <v>16</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>40</v>
@@ -1200,7 +1197,7 @@
         <v>16</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>43</v>
@@ -1241,7 +1238,7 @@
         <v>16</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>63</v>
@@ -1259,7 +1256,7 @@
         <v>2024</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="K16" s="9" t="s">
         <v>17</v>
@@ -1273,7 +1270,7 @@
     </row>
     <row r="17" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B17" s="8">
         <v>2025</v>
@@ -1282,16 +1279,16 @@
         <v>16</v>
       </c>
       <c r="D17" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="F17" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="G17" s="8" t="s">
         <v>73</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>74</v>
       </c>
       <c r="H17" s="8">
         <v>85810936860</v>

--- a/db_login.xlsx
+++ b/db_login.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thinkpad\OneDrive\Documents\WEBSITE\uktpagarnusa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC38A915-B905-40D2-B81C-A4CEA623BEBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09DB612-31B5-4E47-BE32-DFB05A67B4B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{F4BBDE84-6D68-4F5F-A097-307679EF94F8}"/>
   </bookViews>
@@ -204,21 +204,6 @@
     <t>mental</t>
   </si>
   <si>
-    <t>https://uktpagarnusa.my.id/penilaian/fisik/penilaian</t>
-  </si>
-  <si>
-    <t>https://uktpagarnusa.my.id/penilaian/hafalan/penilaian</t>
-  </si>
-  <si>
-    <t>https://uktpagarnusa.my.id/penilaian/sejarah/penilaian</t>
-  </si>
-  <si>
-    <t>https://uktpagarnusa.my.id/penilaian/senaman/penilaian</t>
-  </si>
-  <si>
-    <t>https://uktpagarnusa.my.id/penilaian/mental/penilaian</t>
-  </si>
-  <si>
     <t>Administrator Utama</t>
   </si>
   <si>
@@ -285,10 +270,25 @@
     <t>menu</t>
   </si>
   <si>
-    <t>https://uktpagarnusa.my.id/penilaian/menu_penilaian</t>
-  </si>
-  <si>
     <t>menu penilaian</t>
+  </si>
+  <si>
+    <t>https://uktpagarnusa.my.id/penguji/hafalan</t>
+  </si>
+  <si>
+    <t>https://uktpagarnusa.my.id/penguji/fisik</t>
+  </si>
+  <si>
+    <t>https://uktpagarnusa.my.id/penguji/sejarah</t>
+  </si>
+  <si>
+    <t>https://uktpagarnusa.my.id/penguji/senaman&amp;teknik</t>
+  </si>
+  <si>
+    <t>https://uktpagarnusa.my.id/penguji/mental</t>
+  </si>
+  <si>
+    <t>https://uktpagarnusa.my.id/menu_penilaian</t>
   </si>
 </sst>
 </file>
@@ -726,7 +726,7 @@
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -799,7 +799,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -813,27 +813,27 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>51</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="D4" s="8" t="str">
         <f>A4&amp;B4</f>
@@ -851,13 +851,13 @@
     </row>
     <row r="5" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="D5" s="8" t="str">
         <f t="shared" ref="D5:D8" si="0">A5&amp;B5</f>
@@ -875,13 +875,13 @@
     </row>
     <row r="6" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>53</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="D6" s="8" t="str">
         <f t="shared" si="0"/>
@@ -899,13 +899,13 @@
     </row>
     <row r="7" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>54</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="D7" s="8" t="str">
         <f t="shared" si="0"/>
@@ -924,13 +924,13 @@
     </row>
     <row r="8" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="D8" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1080,7 +1080,7 @@
         <v>16</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>28</v>
@@ -1203,7 +1203,7 @@
         <v>16</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>40</v>
@@ -1244,7 +1244,7 @@
         <v>16</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>43</v>
@@ -1276,7 +1276,7 @@
     </row>
     <row r="17" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B17" s="8">
         <v>2024</v>
@@ -1285,16 +1285,16 @@
         <v>16</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H17" s="8">
         <v>81574795349</v>
@@ -1317,7 +1317,7 @@
     </row>
     <row r="18" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B18" s="8">
         <v>2025</v>
@@ -1326,16 +1326,16 @@
         <v>16</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="H18" s="8">
         <v>85810936860</v>
@@ -1358,7 +1358,7 @@
     </row>
     <row r="19" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B19" s="8">
         <v>2025</v>
@@ -1367,16 +1367,16 @@
         <v>16</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H19" s="8">
         <v>83825945343</v>
@@ -1399,7 +1399,7 @@
     </row>
     <row r="20" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B20" s="8">
         <v>2024</v>
@@ -1408,16 +1408,16 @@
         <v>16</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H20" s="8">
         <v>87861768173</v>
@@ -1443,13 +1443,13 @@
   <hyperlinks>
     <hyperlink ref="E9" r:id="rId1" xr:uid="{7D5A4706-D712-4DA9-ACAD-5CAC2966841B}"/>
     <hyperlink ref="C4" r:id="rId2" xr:uid="{A46E12ED-A845-4146-85E6-CA1B0DA3BCAB}"/>
-    <hyperlink ref="C5:C8" r:id="rId3" display="https://uktpagarnusa.my.id/penilaian/fisik/penilaian" xr:uid="{0A27367E-0191-4AF5-A4EA-FE51F92ACC0C}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{C275E65F-AB3A-4450-99BB-EF160FB612AA}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{08158DAE-737C-47F6-B73C-8B50EB180AFD}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{76DFDE4A-0DA0-4DBB-819B-458B13FBEFA8}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{1A50741B-5940-4317-9C09-CED171112ABB}"/>
-    <hyperlink ref="A9" r:id="rId8" xr:uid="{2050138A-6F52-4FE5-B6CF-CB30EF2474DE}"/>
-    <hyperlink ref="C3" r:id="rId9" xr:uid="{6D0A836C-80B7-4B29-BF4A-69B945E572E1}"/>
+    <hyperlink ref="A9" r:id="rId3" xr:uid="{2050138A-6F52-4FE5-B6CF-CB30EF2474DE}"/>
+    <hyperlink ref="C3" r:id="rId4" xr:uid="{6D0A836C-80B7-4B29-BF4A-69B945E572E1}"/>
+    <hyperlink ref="C5:C8" r:id="rId5" display="https://uktpagarnusa.my.id/penguji/hafalan" xr:uid="{3FFDF934-96CA-4776-BC59-284166DDBF97}"/>
+    <hyperlink ref="C5" r:id="rId6" xr:uid="{B2645CA0-7C68-407B-9880-019B954C1522}"/>
+    <hyperlink ref="C6" r:id="rId7" xr:uid="{BF515C26-E8DD-41B8-8CB4-FDF880B0EBD0}"/>
+    <hyperlink ref="C7" r:id="rId8" xr:uid="{1B27A9D5-E67A-4BD5-BF49-F964A87CFEA5}"/>
+    <hyperlink ref="C8" r:id="rId9" xr:uid="{48267F2A-3923-4E8C-A59A-0788072DEB09}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId10"/>

--- a/db_login.xlsx
+++ b/db_login.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thinkpad\OneDrive\Documents\WEBSITE\uktpagarnusa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6A4A67-D977-426B-A9A4-1C96F86B6FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C11433B-A4EF-4AE9-8CFD-64B9E5E0C81D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{F4BBDE84-6D68-4F5F-A097-307679EF94F8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="88">
   <si>
     <t>Dwi Nur Aini</t>
   </si>
@@ -289,6 +289,15 @@
   </si>
   <si>
     <t>https://uktpagarnusa.my.id/menu_penilaian</t>
+  </si>
+  <si>
+    <t>humas</t>
+  </si>
+  <si>
+    <t>https://uktpagarnusa.my.id/humas</t>
+  </si>
+  <si>
+    <t>Admin Humas</t>
   </si>
 </sst>
 </file>
@@ -735,7 +744,7 @@
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -870,7 +879,7 @@
         <v>79</v>
       </c>
       <c r="D5" s="8" t="str">
-        <f t="shared" ref="D5:D8" si="0">A5&amp;B5</f>
+        <f t="shared" ref="D5:D9" si="0">A5&amp;B5</f>
         <v>penguji hafalan</v>
       </c>
       <c r="E5" s="4"/>
@@ -957,75 +966,48 @@
       <c r="M8" s="4"/>
     </row>
     <row r="9" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="9">
-        <v>2024</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" s="14">
-        <v>83115076643</v>
-      </c>
-      <c r="I9" s="9">
-        <v>2024</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L9" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="M9" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="8">
+      <c r="B10" s="9">
         <v>2024</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="15">
-        <v>85814698694</v>
-      </c>
-      <c r="I10" s="8">
+      <c r="D10" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="14">
+        <v>83115076643</v>
+      </c>
+      <c r="I10" s="9">
         <v>2024</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="J10" s="9" t="s">
         <v>4</v>
       </c>
       <c r="K10" s="9" t="s">
@@ -1040,7 +1022,7 @@
     </row>
     <row r="11" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B11" s="8">
         <v>2024</v>
@@ -1049,19 +1031,19 @@
         <v>16</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H11" s="15">
-        <v>81225866794</v>
+        <v>85814698694</v>
       </c>
       <c r="I11" s="8">
         <v>2024</v>
@@ -1080,35 +1062,35 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
-        <v>28</v>
+      <c r="A12" s="12" t="s">
+        <v>25</v>
       </c>
       <c r="B12" s="8">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>28</v>
+        <v>24</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>25</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H12" s="15">
-        <v>83857670720</v>
+        <v>81225866794</v>
       </c>
       <c r="I12" s="8">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="K12" s="9" t="s">
         <v>17</v>
@@ -1122,7 +1104,7 @@
     </row>
     <row r="13" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B13" s="8">
         <v>2025</v>
@@ -1131,19 +1113,19 @@
         <v>16</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H13" s="15">
-        <v>83160439639</v>
+        <v>83857670720</v>
       </c>
       <c r="I13" s="8">
         <v>2025</v>
@@ -1163,34 +1145,34 @@
     </row>
     <row r="14" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B14" s="8">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H14" s="15">
-        <v>83147387373</v>
+        <v>83160439639</v>
       </c>
       <c r="I14" s="8">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="K14" s="9" t="s">
         <v>17</v>
@@ -1204,34 +1186,34 @@
     </row>
     <row r="15" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B15" s="8">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H15" s="15">
-        <v>83842685953</v>
+        <v>83147387373</v>
       </c>
       <c r="I15" s="8">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="K15" s="9" t="s">
         <v>17</v>
@@ -1245,34 +1227,34 @@
     </row>
     <row r="16" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B16" s="8">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H16" s="15">
-        <v>82299054116</v>
+        <v>83842685953</v>
       </c>
       <c r="I16" s="8">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="K16" s="9" t="s">
         <v>17</v>
@@ -1286,7 +1268,7 @@
     </row>
     <row r="17" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="B17" s="8">
         <v>2024</v>
@@ -1295,19 +1277,19 @@
         <v>16</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="H17" s="15">
-        <v>81574795349</v>
+        <v>82299054116</v>
       </c>
       <c r="I17" s="8">
         <v>2024</v>
@@ -1327,34 +1309,34 @@
     </row>
     <row r="18" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B18" s="8">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="H18" s="15">
-        <v>85810936860</v>
+        <v>81574795349</v>
       </c>
       <c r="I18" s="8">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="K18" s="9" t="s">
         <v>17</v>
@@ -1368,7 +1350,7 @@
     </row>
     <row r="19" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B19" s="8">
         <v>2025</v>
@@ -1377,19 +1359,19 @@
         <v>16</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H19" s="15">
-        <v>83825945343</v>
+        <v>85810936860</v>
       </c>
       <c r="I19" s="8">
         <v>2025</v>
@@ -1409,34 +1391,34 @@
     </row>
     <row r="20" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B20" s="8">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H20" s="15">
-        <v>87861768173</v>
+        <v>83825945343</v>
       </c>
       <c r="I20" s="8">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="K20" s="9" t="s">
         <v>17</v>
@@ -1448,20 +1430,61 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H21" s="15">
+        <v>87861768173</v>
+      </c>
+      <c r="I21" s="8">
+        <v>2024</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L21" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E9" r:id="rId1" xr:uid="{7D5A4706-D712-4DA9-ACAD-5CAC2966841B}"/>
+    <hyperlink ref="E10" r:id="rId1" xr:uid="{7D5A4706-D712-4DA9-ACAD-5CAC2966841B}"/>
     <hyperlink ref="C4" r:id="rId2" xr:uid="{A46E12ED-A845-4146-85E6-CA1B0DA3BCAB}"/>
-    <hyperlink ref="A9" r:id="rId3" xr:uid="{2050138A-6F52-4FE5-B6CF-CB30EF2474DE}"/>
+    <hyperlink ref="A10" r:id="rId3" xr:uid="{2050138A-6F52-4FE5-B6CF-CB30EF2474DE}"/>
     <hyperlink ref="C3" r:id="rId4" xr:uid="{6D0A836C-80B7-4B29-BF4A-69B945E572E1}"/>
     <hyperlink ref="C5:C8" r:id="rId5" display="https://uktpagarnusa.my.id/penguji/hafalan" xr:uid="{3FFDF934-96CA-4776-BC59-284166DDBF97}"/>
     <hyperlink ref="C5" r:id="rId6" xr:uid="{B2645CA0-7C68-407B-9880-019B954C1522}"/>
     <hyperlink ref="C6" r:id="rId7" xr:uid="{BF515C26-E8DD-41B8-8CB4-FDF880B0EBD0}"/>
     <hyperlink ref="C7" r:id="rId8" xr:uid="{1B27A9D5-E67A-4BD5-BF49-F964A87CFEA5}"/>
     <hyperlink ref="C8" r:id="rId9" xr:uid="{48267F2A-3923-4E8C-A59A-0788072DEB09}"/>
+    <hyperlink ref="C9" r:id="rId10" xr:uid="{22193AAA-8BF5-419C-99E3-40D46DFBEAFD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
--- a/db_login.xlsx
+++ b/db_login.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thinkpad\OneDrive\Documents\WEBSITE\PRy UNUSIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0DDF7CA-01EF-4E05-BB93-08476D76EAC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC3217D-6B63-4CBC-B5C3-E4E77866B5C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{F4BBDE84-6D68-4F5F-A097-307679EF94F8}"/>
   </bookViews>
@@ -123,7 +123,7 @@
     <t>kecilpaman</t>
   </si>
   <si>
-    <t>bendahara_rayon.html</t>
+    <t>https://uktpagarnusa.my.id/bendahara_rayon.html</t>
   </si>
 </sst>
 </file>
@@ -133,7 +133,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;0&quot;#"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,6 +187,11 @@
       <charset val="1"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri "/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -209,7 +214,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -240,14 +245,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -567,18 +587,18 @@
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="33.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22" style="2" customWidth="1"/>
-    <col min="3" max="3" width="50.08984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.90625" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.7265625" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.81640625" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="11.54296875" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="51.54296875" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="51.54296875" style="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.36328125" style="7" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.7265625" style="7"/>
     <col min="11" max="11" width="13.6328125" style="7" bestFit="1" customWidth="1"/>
@@ -587,14 +607,14 @@
     <col min="14" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:15" s="3" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="15" t="s">
         <v>19</v>
       </c>
       <c r="D1" s="6"/>
@@ -608,14 +628,14 @@
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
     </row>
-    <row r="2" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:15" ht="19.5" customHeight="1">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="17" t="s">
         <v>21</v>
       </c>
       <c r="E2" s="3"/>
@@ -628,26 +648,26 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:15">
+      <c r="A3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="14" t="s">
         <v>2</v>
       </c>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:15" ht="19.5" customHeight="1">
+      <c r="A4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="17" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="3"/>
@@ -660,14 +680,14 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:15" ht="19.5" customHeight="1">
+      <c r="A5" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="3"/>
@@ -680,14 +700,14 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:15" ht="19.5" customHeight="1">
+      <c r="A6" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="17" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="3"/>
@@ -700,14 +720,14 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:15" ht="19.5" customHeight="1">
+      <c r="A7" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="3"/>
@@ -721,14 +741,14 @@
       <c r="M7" s="3"/>
       <c r="O7" s="4"/>
     </row>
-    <row r="8" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:15" ht="19.5" customHeight="1">
+      <c r="A8" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="17" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="3"/>
@@ -738,25 +758,25 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:15" ht="19.5" customHeight="1">
+      <c r="A9" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:15" ht="19.5" customHeight="1">
+      <c r="A10" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="8"/>
@@ -765,105 +785,105 @@
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
     </row>
-    <row r="11" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:15" ht="19.5" customHeight="1">
+      <c r="A11" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="18" t="s">
         <v>24</v>
       </c>
       <c r="E11" s="11"/>
       <c r="K11" s="8"/>
     </row>
-    <row r="12" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:15" ht="19.5" customHeight="1">
+      <c r="A12" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="16">
         <v>1985</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="18" t="s">
         <v>26</v>
       </c>
       <c r="E12" s="11"/>
       <c r="K12" s="8"/>
     </row>
-    <row r="13" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:15" ht="19.5" customHeight="1">
+      <c r="A13" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="19" t="s">
         <v>29</v>
       </c>
       <c r="K13" s="8"/>
     </row>
-    <row r="14" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="19.5" customHeight="1">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="1"/>
       <c r="K14" s="8"/>
     </row>
-    <row r="15" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="19.5" customHeight="1">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="1"/>
       <c r="K15" s="8"/>
     </row>
-    <row r="16" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="19.5" customHeight="1">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="1"/>
       <c r="K16" s="8"/>
     </row>
-    <row r="17" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" ht="19.5" customHeight="1">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="1"/>
       <c r="K17" s="8"/>
     </row>
-    <row r="18" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" ht="19.5" customHeight="1">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="1"/>
       <c r="K18" s="8"/>
     </row>
-    <row r="19" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" ht="19.5" customHeight="1">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="1"/>
       <c r="K19" s="8"/>
     </row>
-    <row r="20" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" ht="19.5" customHeight="1">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="1"/>
       <c r="K20" s="8"/>
     </row>
-    <row r="21" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" ht="19.5" customHeight="1">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="1"/>
       <c r="K21" s="8"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="1"/>
       <c r="K22" s="8"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="1"/>
       <c r="K23" s="8"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="1"/>
@@ -873,8 +893,9 @@
   <hyperlinks>
     <hyperlink ref="C11" r:id="rId1" xr:uid="{BE24C19D-4AD4-4533-BB29-1AC30668F189}"/>
     <hyperlink ref="C12" r:id="rId2" display="https://uktpagarnusa.my.id/bendahara.html" xr:uid="{DA046E19-3CEF-41DF-A4E9-35C87398D470}"/>
+    <hyperlink ref="C13" r:id="rId3" xr:uid="{B916DD9C-8415-4D42-86B8-F646377734DC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/db_login.xlsx
+++ b/db_login.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thinkpad\OneDrive\Documents\WEBSITE\PRy UNUSIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC3217D-6B63-4CBC-B5C3-E4E77866B5C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D25A4A63-EA43-4EDE-983A-5435E9587865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{F4BBDE84-6D68-4F5F-A097-307679EF94F8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>admin</t>
   </si>
@@ -117,13 +117,10 @@
     <t>bendahara.html</t>
   </si>
   <si>
-    <t>anak</t>
-  </si>
-  <si>
-    <t>kecilpaman</t>
-  </si>
-  <si>
     <t>https://uktpagarnusa.my.id/bendahara_rayon.html</t>
+  </si>
+  <si>
+    <t>iuran</t>
   </si>
 </sst>
 </file>
@@ -587,7 +584,7 @@
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
@@ -813,13 +810,13 @@
     </row>
     <row r="13" spans="1:15" ht="19.5" customHeight="1">
       <c r="A13" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="16">
+        <v>1985</v>
+      </c>
+      <c r="C13" s="19" t="s">
         <v>27</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>29</v>
       </c>
       <c r="K13" s="8"/>
     </row>
